--- a/biology/Médecine/Frédéric_Dubois_d'Amiens/Frédéric_Dubois_d'Amiens.xlsx
+++ b/biology/Médecine/Frédéric_Dubois_d'Amiens/Frédéric_Dubois_d'Amiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Dubois_d%27Amiens</t>
+          <t>Frédéric_Dubois_d'Amiens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédéric Elionor Dubois, dit Frédéric Dubois d'Amiens, est né à Amiens le 30 décembre 1797[1],[2], où il est mort le 10 janvier 1873[3]. Médecin et historien, il fut élu membre de l'Académie de médecine en 1836 puis son secrétaire perpétuel entre 1847 et 1873.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric Elionor Dubois, dit Frédéric Dubois d'Amiens, est né à Amiens le 30 décembre 1797 où il est mort le 10 janvier 1873. Médecin et historien, il fut élu membre de l'Académie de médecine en 1836 puis son secrétaire perpétuel entre 1847 et 1873.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Dubois_d%27Amiens</t>
+          <t>Frédéric_Dubois_d'Amiens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Dubois_d%27Amiens</t>
+          <t>Frédéric_Dubois_d'Amiens</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il est notamment l'auteur d'un livre publié 1833 très remarqué: Histoire philosophique de l’hypocondrie et de l’hystérie, ouvrage couronné par la Société Royale de Médecine de Bordeaux, distinguant les deux pathologies. Il s'est opposé à la notion de magnétisme animal.
 Essai sur la topographie médicale de Saint-Pétersbourg. [Thèse de médecine] Paris, 1828; in-4°, 32 pages.
